--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_LapDat.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -238,6 +238,33 @@
   </si>
   <si>
     <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Sim hết data</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1028,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1214,28 +1241,48 @@
       <c r="B6" s="57">
         <v>44874</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>44876</v>
+      </c>
       <c r="D6" s="66" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="67">
         <v>867717030471511</v>
       </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="66" t="s">
+        <v>65</v>
+      </c>
       <c r="G6" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="J6" s="59"/>
       <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="L6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
+      <c r="O6" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="65"/>
       <c r="T6" s="68"/>
       <c r="U6" s="70" t="s">
@@ -1253,28 +1300,50 @@
       <c r="B7" s="57">
         <v>44874</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="57">
+        <v>44876</v>
+      </c>
       <c r="D7" s="66" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="67">
         <v>867857039895482</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="66" t="s">
+        <v>65</v>
+      </c>
       <c r="G7" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="K7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
+      <c r="O7" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="65"/>
       <c r="T7" s="68"/>
       <c r="U7" s="71"/>
@@ -1659,7 +1728,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2128,7 +2197,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2160,7 +2229,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2192,7 +2261,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3257,13 +3326,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3275,6 +3337,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3285,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3499,7 +3568,9 @@
       <c r="B6" s="57">
         <v>44874</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>44876</v>
+      </c>
       <c r="D6" s="66" t="s">
         <v>64</v>
       </c>
@@ -3521,12 +3592,22 @@
         <v>66</v>
       </c>
       <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="M6" s="61" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
+      <c r="O6" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="65"/>
       <c r="T6" s="55"/>
       <c r="U6" s="70" t="s">
@@ -3974,7 +4055,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4283,7 +4364,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4475,7 +4556,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5540,6 +5621,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5551,13 +5639,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7323,6 +7404,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7334,13 +7422,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
